--- a/Results/Categorization/plsa-partial-ner-money.xlsx
+++ b/Results/Categorization/plsa-partial-ner-money.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3253" uniqueCount="1799">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3253" uniqueCount="1796">
   <si>
     <t>id</t>
   </si>
@@ -4027,135 +4027,138 @@
     <t>SERVICE|AMBIENCE|SERVICE</t>
   </si>
   <si>
+    <t>FOOD|AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|SERVICE|FOOD|FOOD|FOOD|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
     <t>FOOD|FOOD|FOOD|FOOD</t>
   </si>
   <si>
-    <t>FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|SERVICE</t>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|SERVICE|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|FOOD|AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|FOOD|AMBIENCE|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE|AMBIENCE</t>
   </si>
   <si>
     <t>SERVICE|FOOD|FOOD|FOOD</t>
   </si>
   <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|SERVICE|FOOD|FOOD|FOOD|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|SERVICE|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|FOOD|AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|FOOD|AMBIENCE|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>PRICES|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
     <t>FOOD|SERVICE|AMBIENCE</t>
   </si>
   <si>
@@ -4198,7 +4201,7 @@
     <t>FOOD|SERVICE|FOOD|AMBIENCE|AMBIENCE</t>
   </si>
   <si>
-    <t>SERVICE|AMBIENCE|FOOD|AMBIENCE|FOOD|FOOD</t>
+    <t>SERVICE|AMBIENCE|FOOD|FOOD|FOOD|FOOD</t>
   </si>
   <si>
     <t>PRICES|FOOD|FOOD|FOOD</t>
@@ -4222,115 +4225,100 @@
     <t>FOOD|SERVICE|SERVICE|AMBIENCE</t>
   </si>
   <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
     <t>FOOD|PRICES|SERVICE</t>
   </si>
   <si>
     <t>FOOD|PRICES|FOOD</t>
   </si>
   <si>
+    <t>SERVICE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|PRICES|SERVICE|AMBIENCE|PRICES|FOOD|PRICES</t>
+  </si>
+  <si>
     <t>FOOD|SERVICE|SERVICE</t>
   </si>
   <si>
-    <t>SERVICE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|PRICES|SERVICE|AMBIENCE|PRICES|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|SERVICE</t>
+    <t>FOOD|PRICES|FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|AMBIENCE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|SERVICE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE|SERVICE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|SERVICE|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|PRICES|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|FOOD|FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|FOOD|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|PRICES</t>
   </si>
   <si>
     <t>PRICES|AMBIENCE</t>
   </si>
   <si>
-    <t>FOOD|PRICES|FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|AMBIENCE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|SERVICE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE|SERVICE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|SERVICE|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|PRICES|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|FOOD|FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|FOOD|FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|FOOD</t>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
   </si>
   <si>
     <t>AMBIENCE|AMBIENCE|FOOD|FOOD</t>
   </si>
   <si>
-    <t>FOOD|PRICES|FOOD|PRICES</t>
+    <t>FOOD|PRICES|FOOD|AMBIENCE</t>
   </si>
   <si>
     <t>FOOD|PRICES|PRICES|PRICES|PRICES</t>
@@ -4348,7 +4336,7 @@
     <t>FOOD|PRICES|FOOD|AMBIENCE|PRICES</t>
   </si>
   <si>
-    <t>FOOD|FOOD|FOOD|PRICES</t>
+    <t>FOOD|FOOD|AMBIENCE|PRICES</t>
   </si>
   <si>
     <t>FOOD|PRICES|PRICES|FOOD</t>
@@ -4379,6 +4367,9 @@
   </si>
   <si>
     <t>PRICES|FOOD|AMBIENCE|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|PRICES</t>
   </si>
   <si>
     <t>FOOD|SERVICE|FOOD|FOOD|FOOD</t>
@@ -5817,10 +5808,10 @@
         <v>1336</v>
       </c>
       <c r="G2" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="H2" t="s">
-        <v>1763</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -5846,7 +5837,7 @@
         <v>937</v>
       </c>
       <c r="H3" t="s">
-        <v>1764</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -5869,10 +5860,10 @@
         <v>1337</v>
       </c>
       <c r="G4" t="s">
-        <v>1458</v>
+        <v>1455</v>
       </c>
       <c r="H4" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -5895,10 +5886,10 @@
         <v>1277</v>
       </c>
       <c r="G5" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="H5" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -5921,10 +5912,10 @@
         <v>1338</v>
       </c>
       <c r="G6" t="s">
-        <v>1460</v>
+        <v>1457</v>
       </c>
       <c r="H6" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -5947,10 +5938,10 @@
         <v>1339</v>
       </c>
       <c r="G7" t="s">
-        <v>1461</v>
+        <v>1458</v>
       </c>
       <c r="H7" t="s">
-        <v>1763</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -5970,13 +5961,13 @@
         <v>1277</v>
       </c>
       <c r="F8" t="s">
-        <v>1338</v>
+        <v>1340</v>
       </c>
       <c r="G8" t="s">
-        <v>1462</v>
+        <v>1459</v>
       </c>
       <c r="H8" t="s">
-        <v>1767</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -5996,13 +5987,13 @@
         <v>1276</v>
       </c>
       <c r="F9" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="G9" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="H9" t="s">
-        <v>1768</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -6022,13 +6013,13 @@
         <v>1279</v>
       </c>
       <c r="F10" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="G10" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
       <c r="H10" t="s">
-        <v>1769</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -6048,13 +6039,13 @@
         <v>1280</v>
       </c>
       <c r="F11" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="G11" t="s">
-        <v>1465</v>
+        <v>1462</v>
       </c>
       <c r="H11" t="s">
-        <v>1769</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -6077,10 +6068,10 @@
         <v>1277</v>
       </c>
       <c r="G12" t="s">
-        <v>1466</v>
+        <v>1463</v>
       </c>
       <c r="H12" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -6106,7 +6097,7 @@
         <v>937</v>
       </c>
       <c r="H13" t="s">
-        <v>1768</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -6129,10 +6120,10 @@
         <v>1277</v>
       </c>
       <c r="G14" t="s">
-        <v>1466</v>
+        <v>1463</v>
       </c>
       <c r="H14" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -6155,10 +6146,10 @@
         <v>1277</v>
       </c>
       <c r="G15" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="H15" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -6178,13 +6169,13 @@
         <v>1282</v>
       </c>
       <c r="F16" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="G16" t="s">
-        <v>1468</v>
+        <v>1465</v>
       </c>
       <c r="H16" t="s">
-        <v>1770</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -6204,13 +6195,13 @@
         <v>1283</v>
       </c>
       <c r="F17" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="G17" t="s">
-        <v>1469</v>
+        <v>1466</v>
       </c>
       <c r="H17" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -6233,10 +6224,10 @@
         <v>1338</v>
       </c>
       <c r="G18" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
       <c r="H18" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -6256,13 +6247,13 @@
         <v>1275</v>
       </c>
       <c r="F19" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="G19" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="H19" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -6288,7 +6279,7 @@
         <v>937</v>
       </c>
       <c r="H20" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -6308,13 +6299,13 @@
         <v>1275</v>
       </c>
       <c r="F21" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="G21" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="H21" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -6340,7 +6331,7 @@
         <v>1124</v>
       </c>
       <c r="H22" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -6366,7 +6357,7 @@
         <v>937</v>
       </c>
       <c r="H23" t="s">
-        <v>1767</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -6392,7 +6383,7 @@
         <v>952</v>
       </c>
       <c r="H24" t="s">
-        <v>1763</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -6412,13 +6403,13 @@
         <v>1275</v>
       </c>
       <c r="F25" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="G25" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="H25" t="s">
-        <v>1763</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -6441,10 +6432,10 @@
         <v>1338</v>
       </c>
       <c r="G26" t="s">
-        <v>1462</v>
+        <v>1459</v>
       </c>
       <c r="H26" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -6470,7 +6461,7 @@
         <v>952</v>
       </c>
       <c r="H27" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -6490,13 +6481,13 @@
         <v>1277</v>
       </c>
       <c r="F28" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="G28" t="s">
-        <v>1474</v>
+        <v>1471</v>
       </c>
       <c r="H28" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -6519,10 +6510,10 @@
         <v>1338</v>
       </c>
       <c r="G29" t="s">
-        <v>1475</v>
+        <v>1472</v>
       </c>
       <c r="H29" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -6545,10 +6536,10 @@
         <v>1277</v>
       </c>
       <c r="G30" t="s">
-        <v>1476</v>
+        <v>1473</v>
       </c>
       <c r="H30" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -6568,13 +6559,13 @@
         <v>1278</v>
       </c>
       <c r="F31" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="G31" t="s">
-        <v>1477</v>
+        <v>1474</v>
       </c>
       <c r="H31" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -6594,13 +6585,13 @@
         <v>1283</v>
       </c>
       <c r="F32" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="G32" t="s">
-        <v>1478</v>
+        <v>1475</v>
       </c>
       <c r="H32" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -6620,13 +6611,13 @@
         <v>1285</v>
       </c>
       <c r="F33" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="G33" t="s">
-        <v>1479</v>
+        <v>1476</v>
       </c>
       <c r="H33" t="s">
-        <v>1769</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -6646,13 +6637,13 @@
         <v>1285</v>
       </c>
       <c r="F34" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="G34" t="s">
-        <v>1480</v>
+        <v>1477</v>
       </c>
       <c r="H34" t="s">
-        <v>1769</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -6675,10 +6666,10 @@
         <v>1277</v>
       </c>
       <c r="G35" t="s">
-        <v>1481</v>
+        <v>1478</v>
       </c>
       <c r="H35" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -6698,13 +6689,13 @@
         <v>1283</v>
       </c>
       <c r="F36" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="G36" t="s">
-        <v>1482</v>
+        <v>1479</v>
       </c>
       <c r="H36" t="s">
-        <v>1771</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -6727,10 +6718,10 @@
         <v>1277</v>
       </c>
       <c r="G37" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="H37" t="s">
-        <v>1772</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -6750,13 +6741,13 @@
         <v>1275</v>
       </c>
       <c r="F38" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="G38" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
       <c r="H38" t="s">
-        <v>1763</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -6779,10 +6770,10 @@
         <v>1284</v>
       </c>
       <c r="G39" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="H39" t="s">
-        <v>1763</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -6805,10 +6796,10 @@
         <v>1338</v>
       </c>
       <c r="G40" t="s">
-        <v>1485</v>
+        <v>1482</v>
       </c>
       <c r="H40" t="s">
-        <v>1763</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -6828,13 +6819,13 @@
         <v>1284</v>
       </c>
       <c r="F41" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="G41" t="s">
-        <v>1486</v>
+        <v>1483</v>
       </c>
       <c r="H41" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -6854,13 +6845,13 @@
         <v>1284</v>
       </c>
       <c r="F42" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="G42" t="s">
-        <v>1487</v>
+        <v>1484</v>
       </c>
       <c r="H42" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -6880,13 +6871,13 @@
         <v>1279</v>
       </c>
       <c r="F43" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="G43" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="H43" t="s">
-        <v>1769</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -6906,13 +6897,13 @@
         <v>1277</v>
       </c>
       <c r="F44" t="s">
-        <v>1357</v>
+        <v>1349</v>
       </c>
       <c r="G44" t="s">
-        <v>1489</v>
+        <v>1486</v>
       </c>
       <c r="H44" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -6935,10 +6926,10 @@
         <v>1358</v>
       </c>
       <c r="G45" t="s">
-        <v>1490</v>
+        <v>1487</v>
       </c>
       <c r="H45" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -6964,7 +6955,7 @@
         <v>972</v>
       </c>
       <c r="H46" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -6990,7 +6981,7 @@
         <v>937</v>
       </c>
       <c r="H47" t="s">
-        <v>1773</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -7013,10 +7004,10 @@
         <v>1338</v>
       </c>
       <c r="G48" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
       <c r="H48" t="s">
-        <v>1774</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -7039,10 +7030,10 @@
         <v>1338</v>
       </c>
       <c r="G49" t="s">
-        <v>1492</v>
+        <v>1489</v>
       </c>
       <c r="H49" t="s">
-        <v>1764</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -7065,10 +7056,10 @@
         <v>1338</v>
       </c>
       <c r="G50" t="s">
-        <v>1493</v>
+        <v>1490</v>
       </c>
       <c r="H50" t="s">
-        <v>1764</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -7088,13 +7079,13 @@
         <v>1281</v>
       </c>
       <c r="F51" t="s">
-        <v>1337</v>
+        <v>1359</v>
       </c>
       <c r="G51" t="s">
-        <v>1494</v>
+        <v>1491</v>
       </c>
       <c r="H51" t="s">
-        <v>1775</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -7117,10 +7108,10 @@
         <v>1338</v>
       </c>
       <c r="G52" t="s">
-        <v>1495</v>
+        <v>1492</v>
       </c>
       <c r="H52" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -7140,13 +7131,13 @@
         <v>1281</v>
       </c>
       <c r="F53" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="G53" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="H53" t="s">
-        <v>1769</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -7166,13 +7157,13 @@
         <v>1277</v>
       </c>
       <c r="F54" t="s">
-        <v>1357</v>
+        <v>1349</v>
       </c>
       <c r="G54" t="s">
-        <v>1497</v>
+        <v>1494</v>
       </c>
       <c r="H54" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -7195,10 +7186,10 @@
         <v>1338</v>
       </c>
       <c r="G55" t="s">
-        <v>1498</v>
+        <v>1495</v>
       </c>
       <c r="H55" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -7221,10 +7212,10 @@
         <v>1338</v>
       </c>
       <c r="G56" t="s">
-        <v>1499</v>
+        <v>1496</v>
       </c>
       <c r="H56" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -7244,13 +7235,13 @@
         <v>1289</v>
       </c>
       <c r="F57" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="G57" t="s">
-        <v>1500</v>
+        <v>1497</v>
       </c>
       <c r="H57" t="s">
-        <v>1776</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -7270,13 +7261,13 @@
         <v>1290</v>
       </c>
       <c r="F58" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="G58" t="s">
-        <v>1501</v>
+        <v>1498</v>
       </c>
       <c r="H58" t="s">
-        <v>1777</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -7299,10 +7290,10 @@
         <v>1339</v>
       </c>
       <c r="G59" t="s">
-        <v>1502</v>
+        <v>1499</v>
       </c>
       <c r="H59" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -7322,13 +7313,13 @@
         <v>1278</v>
       </c>
       <c r="F60" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="G60" t="s">
-        <v>1503</v>
+        <v>1500</v>
       </c>
       <c r="H60" t="s">
-        <v>1778</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -7348,13 +7339,13 @@
         <v>1291</v>
       </c>
       <c r="F61" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="G61" t="s">
-        <v>1504</v>
+        <v>1501</v>
       </c>
       <c r="H61" t="s">
-        <v>1776</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -7374,13 +7365,13 @@
         <v>1275</v>
       </c>
       <c r="F62" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="G62" t="s">
-        <v>1505</v>
+        <v>1502</v>
       </c>
       <c r="H62" t="s">
-        <v>1763</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -7406,7 +7397,7 @@
         <v>937</v>
       </c>
       <c r="H63" t="s">
-        <v>1763</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -7426,13 +7417,13 @@
         <v>1289</v>
       </c>
       <c r="F64" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="G64" t="s">
-        <v>1506</v>
+        <v>1503</v>
       </c>
       <c r="H64" t="s">
-        <v>1769</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -7452,13 +7443,13 @@
         <v>1275</v>
       </c>
       <c r="F65" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="G65" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="H65" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -7478,13 +7469,13 @@
         <v>1277</v>
       </c>
       <c r="F66" t="s">
-        <v>1366</v>
+        <v>1337</v>
       </c>
       <c r="G66" t="s">
-        <v>1508</v>
+        <v>1505</v>
       </c>
       <c r="H66" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -7504,13 +7495,13 @@
         <v>1275</v>
       </c>
       <c r="F67" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="G67" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="H67" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -7533,10 +7524,10 @@
         <v>1367</v>
       </c>
       <c r="G68" t="s">
-        <v>1509</v>
+        <v>1506</v>
       </c>
       <c r="H68" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -7559,10 +7550,10 @@
         <v>1338</v>
       </c>
       <c r="G69" t="s">
-        <v>1510</v>
+        <v>1507</v>
       </c>
       <c r="H69" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -7588,7 +7579,7 @@
         <v>993</v>
       </c>
       <c r="H70" t="s">
-        <v>1763</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -7608,13 +7599,13 @@
         <v>1294</v>
       </c>
       <c r="F71" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="G71" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="H71" t="s">
-        <v>1764</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -7637,10 +7628,10 @@
         <v>1277</v>
       </c>
       <c r="G72" t="s">
-        <v>1476</v>
+        <v>1473</v>
       </c>
       <c r="H72" t="s">
-        <v>1763</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -7666,7 +7657,7 @@
         <v>937</v>
       </c>
       <c r="H73" t="s">
-        <v>1764</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -7686,13 +7677,13 @@
         <v>1295</v>
       </c>
       <c r="F74" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="G74" t="s">
-        <v>1512</v>
+        <v>1509</v>
       </c>
       <c r="H74" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -7715,10 +7706,10 @@
         <v>1336</v>
       </c>
       <c r="G75" t="s">
-        <v>1513</v>
+        <v>1510</v>
       </c>
       <c r="H75" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -7741,10 +7732,10 @@
         <v>1368</v>
       </c>
       <c r="G76" t="s">
-        <v>1514</v>
+        <v>1511</v>
       </c>
       <c r="H76" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -7770,7 +7761,7 @@
         <v>989</v>
       </c>
       <c r="H77" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -7796,7 +7787,7 @@
         <v>999</v>
       </c>
       <c r="H78" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -7819,10 +7810,10 @@
         <v>1338</v>
       </c>
       <c r="G79" t="s">
-        <v>1515</v>
+        <v>1512</v>
       </c>
       <c r="H79" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -7842,13 +7833,13 @@
         <v>1288</v>
       </c>
       <c r="F80" t="s">
-        <v>1369</v>
+        <v>1340</v>
       </c>
       <c r="G80" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
       <c r="H80" t="s">
-        <v>1779</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -7871,10 +7862,10 @@
         <v>1338</v>
       </c>
       <c r="G81" t="s">
-        <v>1517</v>
+        <v>1514</v>
       </c>
       <c r="H81" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -7894,13 +7885,13 @@
         <v>1276</v>
       </c>
       <c r="F82" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="G82" t="s">
-        <v>1518</v>
+        <v>1515</v>
       </c>
       <c r="H82" t="s">
-        <v>1769</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -7923,10 +7914,10 @@
         <v>1338</v>
       </c>
       <c r="G83" t="s">
-        <v>1519</v>
+        <v>1516</v>
       </c>
       <c r="H83" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -7946,13 +7937,13 @@
         <v>1296</v>
       </c>
       <c r="F84" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="G84" t="s">
-        <v>1520</v>
+        <v>1517</v>
       </c>
       <c r="H84" t="s">
-        <v>1778</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -7978,7 +7969,7 @@
         <v>937</v>
       </c>
       <c r="H85" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -8004,7 +7995,7 @@
         <v>1004</v>
       </c>
       <c r="H86" t="s">
-        <v>1763</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -8027,10 +8018,10 @@
         <v>1338</v>
       </c>
       <c r="G87" t="s">
-        <v>1521</v>
+        <v>1518</v>
       </c>
       <c r="H87" t="s">
-        <v>1780</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -8053,10 +8044,10 @@
         <v>1277</v>
       </c>
       <c r="G88" t="s">
-        <v>1522</v>
+        <v>1519</v>
       </c>
       <c r="H88" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -8076,13 +8067,13 @@
         <v>1284</v>
       </c>
       <c r="F89" t="s">
-        <v>1369</v>
+        <v>1340</v>
       </c>
       <c r="G89" t="s">
-        <v>1523</v>
+        <v>1520</v>
       </c>
       <c r="H89" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -8102,13 +8093,13 @@
         <v>1283</v>
       </c>
       <c r="F90" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="G90" t="s">
-        <v>1478</v>
+        <v>1475</v>
       </c>
       <c r="H90" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -8128,13 +8119,13 @@
         <v>1277</v>
       </c>
       <c r="F91" t="s">
-        <v>1284</v>
+        <v>1277</v>
       </c>
       <c r="G91" t="s">
-        <v>1481</v>
+        <v>1478</v>
       </c>
       <c r="H91" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -8160,7 +8151,7 @@
         <v>972</v>
       </c>
       <c r="H92" t="s">
-        <v>1771</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -8180,13 +8171,13 @@
         <v>1285</v>
       </c>
       <c r="F93" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="G93" t="s">
-        <v>1524</v>
+        <v>1521</v>
       </c>
       <c r="H93" t="s">
-        <v>1769</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -8206,13 +8197,13 @@
         <v>1298</v>
       </c>
       <c r="F94" t="s">
-        <v>1357</v>
+        <v>1349</v>
       </c>
       <c r="G94" t="s">
-        <v>1525</v>
+        <v>1522</v>
       </c>
       <c r="H94" t="s">
-        <v>1781</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -8232,13 +8223,13 @@
         <v>1276</v>
       </c>
       <c r="F95" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="G95" t="s">
-        <v>1526</v>
+        <v>1523</v>
       </c>
       <c r="H95" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -8261,10 +8252,10 @@
         <v>1358</v>
       </c>
       <c r="G96" t="s">
-        <v>1527</v>
+        <v>1524</v>
       </c>
       <c r="H96" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -8287,10 +8278,10 @@
         <v>1368</v>
       </c>
       <c r="G97" t="s">
-        <v>1528</v>
+        <v>1525</v>
       </c>
       <c r="H97" t="s">
-        <v>1769</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -8313,10 +8304,10 @@
         <v>1277</v>
       </c>
       <c r="G98" t="s">
-        <v>1529</v>
+        <v>1526</v>
       </c>
       <c r="H98" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -8339,10 +8330,10 @@
         <v>1277</v>
       </c>
       <c r="G99" t="s">
-        <v>1530</v>
+        <v>1527</v>
       </c>
       <c r="H99" t="s">
-        <v>1771</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -8362,13 +8353,13 @@
         <v>1275</v>
       </c>
       <c r="F100" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="G100" t="s">
-        <v>1531</v>
+        <v>1528</v>
       </c>
       <c r="H100" t="s">
-        <v>1763</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -8388,13 +8379,13 @@
         <v>1278</v>
       </c>
       <c r="F101" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="G101" t="s">
-        <v>1532</v>
+        <v>1529</v>
       </c>
       <c r="H101" t="s">
-        <v>1764</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -8414,13 +8405,13 @@
         <v>1278</v>
       </c>
       <c r="F102" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="G102" t="s">
-        <v>1533</v>
+        <v>1530</v>
       </c>
       <c r="H102" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -8443,10 +8434,10 @@
         <v>1277</v>
       </c>
       <c r="G103" t="s">
-        <v>1466</v>
+        <v>1463</v>
       </c>
       <c r="H103" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -8466,13 +8457,13 @@
         <v>1275</v>
       </c>
       <c r="F104" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="G104" t="s">
-        <v>1534</v>
+        <v>1531</v>
       </c>
       <c r="H104" t="s">
-        <v>1767</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -8492,13 +8483,13 @@
         <v>1284</v>
       </c>
       <c r="F105" t="s">
-        <v>1369</v>
+        <v>1340</v>
       </c>
       <c r="G105" t="s">
-        <v>1535</v>
+        <v>1532</v>
       </c>
       <c r="H105" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -8524,7 +8515,7 @@
         <v>972</v>
       </c>
       <c r="H106" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -8547,10 +8538,10 @@
         <v>1338</v>
       </c>
       <c r="G107" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
       <c r="H107" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -8576,7 +8567,7 @@
         <v>935</v>
       </c>
       <c r="H108" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -8596,13 +8587,13 @@
         <v>1285</v>
       </c>
       <c r="F109" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="G109" t="s">
-        <v>1537</v>
+        <v>1534</v>
       </c>
       <c r="H109" t="s">
-        <v>1769</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -8622,13 +8613,13 @@
         <v>1275</v>
       </c>
       <c r="F110" t="s">
-        <v>1365</v>
+        <v>1374</v>
       </c>
       <c r="G110" t="s">
-        <v>1538</v>
+        <v>1535</v>
       </c>
       <c r="H110" t="s">
-        <v>1763</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -8648,13 +8639,13 @@
         <v>1295</v>
       </c>
       <c r="F111" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="G111" t="s">
-        <v>1539</v>
+        <v>1536</v>
       </c>
       <c r="H111" t="s">
-        <v>1782</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -8674,13 +8665,13 @@
         <v>1297</v>
       </c>
       <c r="F112" t="s">
-        <v>1277</v>
+        <v>1284</v>
       </c>
       <c r="G112" t="s">
-        <v>1466</v>
+        <v>1463</v>
       </c>
       <c r="H112" t="s">
-        <v>1769</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -8700,13 +8691,13 @@
         <v>1275</v>
       </c>
       <c r="F113" t="s">
-        <v>1277</v>
+        <v>1284</v>
       </c>
       <c r="G113" t="s">
-        <v>1540</v>
+        <v>1537</v>
       </c>
       <c r="H113" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -8729,10 +8720,10 @@
         <v>1338</v>
       </c>
       <c r="G114" t="s">
-        <v>1541</v>
+        <v>1538</v>
       </c>
       <c r="H114" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -8755,10 +8746,10 @@
         <v>1284</v>
       </c>
       <c r="G115" t="s">
-        <v>1530</v>
+        <v>1527</v>
       </c>
       <c r="H115" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -8781,10 +8772,10 @@
         <v>1375</v>
       </c>
       <c r="G116" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="H116" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -8810,7 +8801,7 @@
         <v>952</v>
       </c>
       <c r="H117" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -8830,13 +8821,13 @@
         <v>1295</v>
       </c>
       <c r="F118" t="s">
-        <v>1366</v>
+        <v>1376</v>
       </c>
       <c r="G118" t="s">
-        <v>1543</v>
+        <v>1540</v>
       </c>
       <c r="H118" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -8856,13 +8847,13 @@
         <v>1276</v>
       </c>
       <c r="F119" t="s">
-        <v>1337</v>
+        <v>1359</v>
       </c>
       <c r="G119" t="s">
-        <v>1544</v>
+        <v>1541</v>
       </c>
       <c r="H119" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -8882,13 +8873,13 @@
         <v>1277</v>
       </c>
       <c r="F120" t="s">
-        <v>1357</v>
+        <v>1349</v>
       </c>
       <c r="G120" t="s">
-        <v>1545</v>
+        <v>1542</v>
       </c>
       <c r="H120" t="s">
-        <v>1763</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -8908,13 +8899,13 @@
         <v>1295</v>
       </c>
       <c r="F121" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="G121" t="s">
-        <v>1546</v>
+        <v>1543</v>
       </c>
       <c r="H121" t="s">
-        <v>1779</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -8934,13 +8925,13 @@
         <v>1277</v>
       </c>
       <c r="F122" t="s">
-        <v>1357</v>
+        <v>1349</v>
       </c>
       <c r="G122" t="s">
-        <v>1547</v>
+        <v>1544</v>
       </c>
       <c r="H122" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -8966,7 +8957,7 @@
         <v>972</v>
       </c>
       <c r="H123" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -8992,7 +8983,7 @@
         <v>952</v>
       </c>
       <c r="H124" t="s">
-        <v>1776</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -9018,7 +9009,7 @@
         <v>935</v>
       </c>
       <c r="H125" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -9044,7 +9035,7 @@
         <v>937</v>
       </c>
       <c r="H126" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -9067,10 +9058,10 @@
         <v>1338</v>
       </c>
       <c r="G127" t="s">
-        <v>1548</v>
+        <v>1545</v>
       </c>
       <c r="H127" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -9090,13 +9081,13 @@
         <v>1277</v>
       </c>
       <c r="F128" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="G128" t="s">
-        <v>1549</v>
+        <v>1546</v>
       </c>
       <c r="H128" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -9122,7 +9113,7 @@
         <v>1004</v>
       </c>
       <c r="H129" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -9145,10 +9136,10 @@
         <v>1277</v>
       </c>
       <c r="G130" t="s">
-        <v>1466</v>
+        <v>1463</v>
       </c>
       <c r="H130" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -9168,13 +9159,13 @@
         <v>1275</v>
       </c>
       <c r="F131" t="s">
-        <v>1377</v>
+        <v>1366</v>
       </c>
       <c r="G131" t="s">
-        <v>1550</v>
+        <v>1547</v>
       </c>
       <c r="H131" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -9194,13 +9185,13 @@
         <v>1276</v>
       </c>
       <c r="F132" t="s">
-        <v>1357</v>
+        <v>1349</v>
       </c>
       <c r="G132" t="s">
-        <v>1551</v>
+        <v>1548</v>
       </c>
       <c r="H132" t="s">
-        <v>1771</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -9220,13 +9211,13 @@
         <v>1276</v>
       </c>
       <c r="F133" t="s">
-        <v>1357</v>
+        <v>1349</v>
       </c>
       <c r="G133" t="s">
-        <v>1552</v>
+        <v>1549</v>
       </c>
       <c r="H133" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -9246,13 +9237,13 @@
         <v>1297</v>
       </c>
       <c r="F134" t="s">
-        <v>1375</v>
+        <v>1340</v>
       </c>
       <c r="G134" t="s">
-        <v>1553</v>
+        <v>1550</v>
       </c>
       <c r="H134" t="s">
-        <v>1771</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -9275,10 +9266,10 @@
         <v>1378</v>
       </c>
       <c r="G135" t="s">
-        <v>1554</v>
+        <v>1551</v>
       </c>
       <c r="H135" t="s">
-        <v>1767</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -9301,10 +9292,10 @@
         <v>1379</v>
       </c>
       <c r="G136" t="s">
-        <v>1555</v>
+        <v>1552</v>
       </c>
       <c r="H136" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -9324,13 +9315,13 @@
         <v>1276</v>
       </c>
       <c r="F137" t="s">
-        <v>1337</v>
+        <v>1359</v>
       </c>
       <c r="G137" t="s">
-        <v>1556</v>
+        <v>1553</v>
       </c>
       <c r="H137" t="s">
-        <v>1771</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -9353,10 +9344,10 @@
         <v>1375</v>
       </c>
       <c r="G138" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="H138" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -9379,10 +9370,10 @@
         <v>1375</v>
       </c>
       <c r="G139" t="s">
-        <v>1558</v>
+        <v>1555</v>
       </c>
       <c r="H139" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -9405,10 +9396,10 @@
         <v>1338</v>
       </c>
       <c r="G140" t="s">
-        <v>1495</v>
+        <v>1492</v>
       </c>
       <c r="H140" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -9428,13 +9419,13 @@
         <v>1284</v>
       </c>
       <c r="F141" t="s">
-        <v>1284</v>
+        <v>1277</v>
       </c>
       <c r="G141" t="s">
         <v>972</v>
       </c>
       <c r="H141" t="s">
-        <v>1767</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -9454,13 +9445,13 @@
         <v>1276</v>
       </c>
       <c r="F142" t="s">
-        <v>1357</v>
+        <v>1349</v>
       </c>
       <c r="G142" t="s">
-        <v>1559</v>
+        <v>1556</v>
       </c>
       <c r="H142" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -9480,13 +9471,13 @@
         <v>1275</v>
       </c>
       <c r="F143" t="s">
-        <v>1369</v>
+        <v>1340</v>
       </c>
       <c r="G143" t="s">
-        <v>1560</v>
+        <v>1557</v>
       </c>
       <c r="H143" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -9509,10 +9500,10 @@
         <v>1358</v>
       </c>
       <c r="G144" t="s">
-        <v>1561</v>
+        <v>1558</v>
       </c>
       <c r="H144" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -9535,10 +9526,10 @@
         <v>1338</v>
       </c>
       <c r="G145" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
       <c r="H145" t="s">
-        <v>1769</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -9564,7 +9555,7 @@
         <v>1054</v>
       </c>
       <c r="H146" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -9584,13 +9575,13 @@
         <v>1277</v>
       </c>
       <c r="F147" t="s">
-        <v>1354</v>
+        <v>1380</v>
       </c>
       <c r="G147" t="s">
-        <v>1562</v>
+        <v>1559</v>
       </c>
       <c r="H147" t="s">
-        <v>1763</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -9610,13 +9601,13 @@
         <v>1283</v>
       </c>
       <c r="F148" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="G148" t="s">
-        <v>1563</v>
+        <v>1560</v>
       </c>
       <c r="H148" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -9639,10 +9630,10 @@
         <v>1277</v>
       </c>
       <c r="G149" t="s">
-        <v>1564</v>
+        <v>1561</v>
       </c>
       <c r="H149" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -9668,7 +9659,7 @@
         <v>993</v>
       </c>
       <c r="H150" t="s">
-        <v>1769</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -9688,13 +9679,13 @@
         <v>1301</v>
       </c>
       <c r="F151" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="G151" t="s">
-        <v>1565</v>
+        <v>1562</v>
       </c>
       <c r="H151" t="s">
-        <v>1769</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -9720,7 +9711,7 @@
         <v>935</v>
       </c>
       <c r="H152" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -9743,10 +9734,10 @@
         <v>1277</v>
       </c>
       <c r="G153" t="s">
-        <v>1566</v>
+        <v>1563</v>
       </c>
       <c r="H153" t="s">
-        <v>1763</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -9766,13 +9757,13 @@
         <v>1276</v>
       </c>
       <c r="F154" t="s">
-        <v>1337</v>
+        <v>1359</v>
       </c>
       <c r="G154" t="s">
-        <v>1567</v>
+        <v>1564</v>
       </c>
       <c r="H154" t="s">
-        <v>1783</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -9792,13 +9783,13 @@
         <v>1275</v>
       </c>
       <c r="F155" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="G155" t="s">
-        <v>1568</v>
+        <v>1565</v>
       </c>
       <c r="H155" t="s">
-        <v>1771</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -9824,7 +9815,7 @@
         <v>1000</v>
       </c>
       <c r="H156" t="s">
-        <v>1784</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -9847,10 +9838,10 @@
         <v>1277</v>
       </c>
       <c r="G157" t="s">
-        <v>1569</v>
+        <v>1566</v>
       </c>
       <c r="H157" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -9870,13 +9861,13 @@
         <v>1303</v>
       </c>
       <c r="F158" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="G158" t="s">
-        <v>1570</v>
+        <v>1567</v>
       </c>
       <c r="H158" t="s">
-        <v>1771</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -9896,13 +9887,13 @@
         <v>1277</v>
       </c>
       <c r="F159" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="G159" t="s">
-        <v>1571</v>
+        <v>1568</v>
       </c>
       <c r="H159" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -9922,13 +9913,13 @@
         <v>1277</v>
       </c>
       <c r="F160" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="G160" t="s">
-        <v>1572</v>
+        <v>1569</v>
       </c>
       <c r="H160" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -9951,10 +9942,10 @@
         <v>1338</v>
       </c>
       <c r="G161" t="s">
-        <v>1573</v>
+        <v>1570</v>
       </c>
       <c r="H161" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -9977,10 +9968,10 @@
         <v>1277</v>
       </c>
       <c r="G162" t="s">
-        <v>1466</v>
+        <v>1463</v>
       </c>
       <c r="H162" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -10003,10 +9994,10 @@
         <v>1277</v>
       </c>
       <c r="G163" t="s">
-        <v>1481</v>
+        <v>1478</v>
       </c>
       <c r="H163" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -10026,13 +10017,13 @@
         <v>1284</v>
       </c>
       <c r="F164" t="s">
-        <v>1369</v>
+        <v>1375</v>
       </c>
       <c r="G164" t="s">
-        <v>1574</v>
+        <v>1571</v>
       </c>
       <c r="H164" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -10052,13 +10043,13 @@
         <v>1284</v>
       </c>
       <c r="F165" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="G165" t="s">
-        <v>1575</v>
+        <v>1572</v>
       </c>
       <c r="H165" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -10084,7 +10075,7 @@
         <v>1066</v>
       </c>
       <c r="H166" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -10104,13 +10095,13 @@
         <v>1277</v>
       </c>
       <c r="F167" t="s">
-        <v>1369</v>
+        <v>1340</v>
       </c>
       <c r="G167" t="s">
-        <v>1576</v>
+        <v>1573</v>
       </c>
       <c r="H167" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -10136,7 +10127,7 @@
         <v>980</v>
       </c>
       <c r="H168" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -10156,13 +10147,13 @@
         <v>1278</v>
       </c>
       <c r="F169" t="s">
-        <v>1357</v>
+        <v>1349</v>
       </c>
       <c r="G169" t="s">
-        <v>1577</v>
+        <v>1574</v>
       </c>
       <c r="H169" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -10182,13 +10173,13 @@
         <v>1285</v>
       </c>
       <c r="F170" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="G170" t="s">
-        <v>1578</v>
+        <v>1575</v>
       </c>
       <c r="H170" t="s">
-        <v>1769</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -10211,10 +10202,10 @@
         <v>1277</v>
       </c>
       <c r="G171" t="s">
-        <v>1476</v>
+        <v>1473</v>
       </c>
       <c r="H171" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -10234,13 +10225,13 @@
         <v>1278</v>
       </c>
       <c r="F172" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="G172" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="H172" t="s">
-        <v>1764</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -10260,13 +10251,13 @@
         <v>1304</v>
       </c>
       <c r="F173" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="G173" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="H173" t="s">
-        <v>1776</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -10286,13 +10277,13 @@
         <v>1299</v>
       </c>
       <c r="F174" t="s">
-        <v>1377</v>
+        <v>1366</v>
       </c>
       <c r="G174" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
       <c r="H174" t="s">
-        <v>1779</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -10312,13 +10303,13 @@
         <v>1305</v>
       </c>
       <c r="F175" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="G175" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="H175" t="s">
-        <v>1776</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -10341,10 +10332,10 @@
         <v>1277</v>
       </c>
       <c r="G176" t="s">
-        <v>1481</v>
+        <v>1478</v>
       </c>
       <c r="H176" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -10367,10 +10358,10 @@
         <v>1277</v>
       </c>
       <c r="G177" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="H177" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -10393,10 +10384,10 @@
         <v>1338</v>
       </c>
       <c r="G178" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
       <c r="H178" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -10419,10 +10410,10 @@
         <v>1277</v>
       </c>
       <c r="G179" t="s">
-        <v>1569</v>
+        <v>1566</v>
       </c>
       <c r="H179" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -10442,13 +10433,13 @@
         <v>1306</v>
       </c>
       <c r="F180" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="G180" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
       <c r="H180" t="s">
-        <v>1769</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -10468,13 +10459,13 @@
         <v>1275</v>
       </c>
       <c r="F181" t="s">
-        <v>1383</v>
+        <v>1375</v>
       </c>
       <c r="G181" t="s">
-        <v>1586</v>
+        <v>1583</v>
       </c>
       <c r="H181" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -10494,13 +10485,13 @@
         <v>1283</v>
       </c>
       <c r="F182" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="G182" t="s">
-        <v>1587</v>
+        <v>1584</v>
       </c>
       <c r="H182" t="s">
-        <v>1774</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -10520,13 +10511,13 @@
         <v>1307</v>
       </c>
       <c r="F183" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="G183" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="H183" t="s">
-        <v>1785</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -10546,13 +10537,13 @@
         <v>1308</v>
       </c>
       <c r="F184" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="G184" t="s">
-        <v>1589</v>
+        <v>1586</v>
       </c>
       <c r="H184" t="s">
-        <v>1776</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -10572,13 +10563,13 @@
         <v>1292</v>
       </c>
       <c r="F185" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="G185" t="s">
-        <v>1590</v>
+        <v>1587</v>
       </c>
       <c r="H185" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -10598,13 +10589,13 @@
         <v>1276</v>
       </c>
       <c r="F186" t="s">
-        <v>1369</v>
+        <v>1340</v>
       </c>
       <c r="G186" t="s">
-        <v>1591</v>
+        <v>1588</v>
       </c>
       <c r="H186" t="s">
-        <v>1779</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -10630,7 +10621,7 @@
         <v>993</v>
       </c>
       <c r="H187" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -10653,10 +10644,10 @@
         <v>1277</v>
       </c>
       <c r="G188" t="s">
-        <v>1476</v>
+        <v>1473</v>
       </c>
       <c r="H188" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -10679,10 +10670,10 @@
         <v>1277</v>
       </c>
       <c r="G189" t="s">
-        <v>1592</v>
+        <v>1589</v>
       </c>
       <c r="H189" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -10702,13 +10693,13 @@
         <v>1309</v>
       </c>
       <c r="F190" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="G190" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="H190" t="s">
-        <v>1779</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -10731,10 +10722,10 @@
         <v>1375</v>
       </c>
       <c r="G191" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
       <c r="H191" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -10757,10 +10748,10 @@
         <v>1338</v>
       </c>
       <c r="G192" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
       <c r="H192" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -10786,7 +10777,7 @@
         <v>993</v>
       </c>
       <c r="H193" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -10806,13 +10797,13 @@
         <v>1299</v>
       </c>
       <c r="F194" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="G194" t="s">
-        <v>1594</v>
+        <v>1591</v>
       </c>
       <c r="H194" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -10838,7 +10829,7 @@
         <v>937</v>
       </c>
       <c r="H195" t="s">
-        <v>1763</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -10861,10 +10852,10 @@
         <v>1338</v>
       </c>
       <c r="G196" t="s">
-        <v>1595</v>
+        <v>1592</v>
       </c>
       <c r="H196" t="s">
-        <v>1764</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -10887,10 +10878,10 @@
         <v>1367</v>
       </c>
       <c r="G197" t="s">
-        <v>1596</v>
+        <v>1593</v>
       </c>
       <c r="H197" t="s">
-        <v>1764</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -10910,13 +10901,13 @@
         <v>1283</v>
       </c>
       <c r="F198" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="G198" t="s">
-        <v>1597</v>
+        <v>1594</v>
       </c>
       <c r="H198" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -10939,10 +10930,10 @@
         <v>1338</v>
       </c>
       <c r="G199" t="s">
-        <v>1598</v>
+        <v>1595</v>
       </c>
       <c r="H199" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -10968,7 +10959,7 @@
         <v>972</v>
       </c>
       <c r="H200" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -10991,10 +10982,10 @@
         <v>1375</v>
       </c>
       <c r="G201" t="s">
-        <v>1599</v>
+        <v>1596</v>
       </c>
       <c r="H201" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -11020,7 +11011,7 @@
         <v>1000</v>
       </c>
       <c r="H202" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -11043,10 +11034,10 @@
         <v>1284</v>
       </c>
       <c r="G203" t="s">
-        <v>1530</v>
+        <v>1527</v>
       </c>
       <c r="H203" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -11072,7 +11063,7 @@
         <v>1004</v>
       </c>
       <c r="H204" t="s">
-        <v>1763</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -11092,13 +11083,13 @@
         <v>1277</v>
       </c>
       <c r="F205" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="G205" t="s">
-        <v>1600</v>
+        <v>1597</v>
       </c>
       <c r="H205" t="s">
-        <v>1763</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -11121,10 +11112,10 @@
         <v>1375</v>
       </c>
       <c r="G206" t="s">
-        <v>1601</v>
+        <v>1598</v>
       </c>
       <c r="H206" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -11144,13 +11135,13 @@
         <v>1308</v>
       </c>
       <c r="F207" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="G207" t="s">
-        <v>1602</v>
+        <v>1599</v>
       </c>
       <c r="H207" t="s">
-        <v>1776</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -11176,7 +11167,7 @@
         <v>1093</v>
       </c>
       <c r="H208" t="s">
-        <v>1763</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -11196,13 +11187,13 @@
         <v>1311</v>
       </c>
       <c r="F209" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="G209" t="s">
-        <v>1603</v>
+        <v>1600</v>
       </c>
       <c r="H209" t="s">
-        <v>1782</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -11222,13 +11213,13 @@
         <v>1278</v>
       </c>
       <c r="F210" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="G210" t="s">
-        <v>1604</v>
+        <v>1601</v>
       </c>
       <c r="H210" t="s">
-        <v>1764</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -11248,13 +11239,13 @@
         <v>1275</v>
       </c>
       <c r="F211" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="G211" t="s">
-        <v>1605</v>
+        <v>1602</v>
       </c>
       <c r="H211" t="s">
-        <v>1763</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -11280,7 +11271,7 @@
         <v>952</v>
       </c>
       <c r="H212" t="s">
-        <v>1763</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -11303,10 +11294,10 @@
         <v>1338</v>
       </c>
       <c r="G213" t="s">
-        <v>1606</v>
+        <v>1603</v>
       </c>
       <c r="H213" t="s">
-        <v>1771</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -11332,7 +11323,7 @@
         <v>1050</v>
       </c>
       <c r="H214" t="s">
-        <v>1764</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -11355,10 +11346,10 @@
         <v>1277</v>
       </c>
       <c r="G215" t="s">
-        <v>1607</v>
+        <v>1604</v>
       </c>
       <c r="H215" t="s">
-        <v>1763</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -11378,13 +11369,13 @@
         <v>1310</v>
       </c>
       <c r="F216" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="G216" t="s">
-        <v>1608</v>
+        <v>1605</v>
       </c>
       <c r="H216" t="s">
-        <v>1786</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -11404,13 +11395,13 @@
         <v>1277</v>
       </c>
       <c r="F217" t="s">
-        <v>1365</v>
+        <v>1384</v>
       </c>
       <c r="G217" t="s">
-        <v>1609</v>
+        <v>1606</v>
       </c>
       <c r="H217" t="s">
-        <v>1763</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -11433,10 +11424,10 @@
         <v>1284</v>
       </c>
       <c r="G218" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="H218" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -11459,10 +11450,10 @@
         <v>1368</v>
       </c>
       <c r="G219" t="s">
-        <v>1610</v>
+        <v>1607</v>
       </c>
       <c r="H219" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -11482,13 +11473,13 @@
         <v>1277</v>
       </c>
       <c r="F220" t="s">
-        <v>1357</v>
+        <v>1349</v>
       </c>
       <c r="G220" t="s">
-        <v>1611</v>
+        <v>1608</v>
       </c>
       <c r="H220" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -11508,13 +11499,13 @@
         <v>1310</v>
       </c>
       <c r="F221" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="G221" t="s">
-        <v>1612</v>
+        <v>1609</v>
       </c>
       <c r="H221" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -11537,10 +11528,10 @@
         <v>1284</v>
       </c>
       <c r="G222" t="s">
-        <v>1564</v>
+        <v>1561</v>
       </c>
       <c r="H222" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -11560,13 +11551,13 @@
         <v>1309</v>
       </c>
       <c r="F223" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="G223" t="s">
-        <v>1613</v>
+        <v>1610</v>
       </c>
       <c r="H223" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -11592,7 +11583,7 @@
         <v>952</v>
       </c>
       <c r="H224" t="s">
-        <v>1769</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -11612,13 +11603,13 @@
         <v>1275</v>
       </c>
       <c r="F225" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="G225" t="s">
-        <v>1614</v>
+        <v>1611</v>
       </c>
       <c r="H225" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -11638,13 +11629,13 @@
         <v>1310</v>
       </c>
       <c r="F226" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="G226" t="s">
-        <v>1615</v>
+        <v>1612</v>
       </c>
       <c r="H226" t="s">
-        <v>1787</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -11664,13 +11655,13 @@
         <v>1313</v>
       </c>
       <c r="F227" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="G227" t="s">
-        <v>1616</v>
+        <v>1613</v>
       </c>
       <c r="H227" t="s">
-        <v>1788</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -11690,13 +11681,13 @@
         <v>1284</v>
       </c>
       <c r="F228" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="G228" t="s">
-        <v>1617</v>
+        <v>1614</v>
       </c>
       <c r="H228" t="s">
-        <v>1767</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -11722,7 +11713,7 @@
         <v>1093</v>
       </c>
       <c r="H229" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -11748,7 +11739,7 @@
         <v>935</v>
       </c>
       <c r="H230" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -11774,7 +11765,7 @@
         <v>1093</v>
       </c>
       <c r="H231" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -11797,10 +11788,10 @@
         <v>1375</v>
       </c>
       <c r="G232" t="s">
-        <v>1618</v>
+        <v>1615</v>
       </c>
       <c r="H232" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -11820,13 +11811,13 @@
         <v>1275</v>
       </c>
       <c r="F233" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="G233" t="s">
-        <v>1619</v>
+        <v>1616</v>
       </c>
       <c r="H233" t="s">
-        <v>1763</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -11849,10 +11840,10 @@
         <v>1293</v>
       </c>
       <c r="G234" t="s">
-        <v>1620</v>
+        <v>1617</v>
       </c>
       <c r="H234" t="s">
-        <v>1763</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -11878,7 +11869,7 @@
         <v>952</v>
       </c>
       <c r="H235" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -11901,10 +11892,10 @@
         <v>1293</v>
       </c>
       <c r="G236" t="s">
-        <v>1621</v>
+        <v>1618</v>
       </c>
       <c r="H236" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -11927,10 +11918,10 @@
         <v>1293</v>
       </c>
       <c r="G237" t="s">
-        <v>1620</v>
+        <v>1617</v>
       </c>
       <c r="H237" t="s">
-        <v>1764</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -11953,10 +11944,10 @@
         <v>1375</v>
       </c>
       <c r="G238" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="H238" t="s">
-        <v>1763</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -11976,13 +11967,13 @@
         <v>1299</v>
       </c>
       <c r="F239" t="s">
-        <v>1402</v>
+        <v>1343</v>
       </c>
       <c r="G239" t="s">
-        <v>1623</v>
+        <v>1620</v>
       </c>
       <c r="H239" t="s">
-        <v>1771</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -12002,13 +11993,13 @@
         <v>1284</v>
       </c>
       <c r="F240" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="G240" t="s">
-        <v>1624</v>
+        <v>1621</v>
       </c>
       <c r="H240" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -12034,7 +12025,7 @@
         <v>935</v>
       </c>
       <c r="H241" t="s">
-        <v>1769</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -12057,10 +12048,10 @@
         <v>1403</v>
       </c>
       <c r="G242" t="s">
-        <v>1625</v>
+        <v>1622</v>
       </c>
       <c r="H242" t="s">
-        <v>1769</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -12086,7 +12077,7 @@
         <v>952</v>
       </c>
       <c r="H243" t="s">
-        <v>1767</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -12112,7 +12103,7 @@
         <v>972</v>
       </c>
       <c r="H244" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -12135,10 +12126,10 @@
         <v>1404</v>
       </c>
       <c r="G245" t="s">
-        <v>1626</v>
+        <v>1623</v>
       </c>
       <c r="H245" t="s">
-        <v>1776</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -12161,10 +12152,10 @@
         <v>1375</v>
       </c>
       <c r="G246" t="s">
-        <v>1627</v>
+        <v>1624</v>
       </c>
       <c r="H246" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -12184,13 +12175,13 @@
         <v>1317</v>
       </c>
       <c r="F247" t="s">
-        <v>1405</v>
+        <v>1381</v>
       </c>
       <c r="G247" t="s">
-        <v>1563</v>
+        <v>1560</v>
       </c>
       <c r="H247" t="s">
-        <v>1769</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -12210,13 +12201,13 @@
         <v>1275</v>
       </c>
       <c r="F248" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="G248" t="s">
-        <v>1628</v>
+        <v>1625</v>
       </c>
       <c r="H248" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -12236,13 +12227,13 @@
         <v>1275</v>
       </c>
       <c r="F249" t="s">
-        <v>1346</v>
+        <v>1364</v>
       </c>
       <c r="G249" t="s">
-        <v>1629</v>
+        <v>1626</v>
       </c>
       <c r="H249" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -12262,13 +12253,13 @@
         <v>1275</v>
       </c>
       <c r="F250" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="G250" t="s">
-        <v>1630</v>
+        <v>1627</v>
       </c>
       <c r="H250" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -12294,7 +12285,7 @@
         <v>935</v>
       </c>
       <c r="H251" t="s">
-        <v>1763</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -12320,7 +12311,7 @@
         <v>989</v>
       </c>
       <c r="H252" t="s">
-        <v>1764</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -12346,7 +12337,7 @@
         <v>989</v>
       </c>
       <c r="H253" t="s">
-        <v>1763</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -12366,13 +12357,13 @@
         <v>1304</v>
       </c>
       <c r="F254" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="G254" t="s">
-        <v>1631</v>
+        <v>1628</v>
       </c>
       <c r="H254" t="s">
-        <v>1770</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -12395,10 +12386,10 @@
         <v>1277</v>
       </c>
       <c r="G255" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="H255" t="s">
-        <v>1764</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -12418,13 +12409,13 @@
         <v>1299</v>
       </c>
       <c r="F256" t="s">
-        <v>1402</v>
+        <v>1343</v>
       </c>
       <c r="G256" t="s">
-        <v>1633</v>
+        <v>1630</v>
       </c>
       <c r="H256" t="s">
-        <v>1771</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -12444,13 +12435,13 @@
         <v>1275</v>
       </c>
       <c r="F257" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="G257" t="s">
-        <v>1634</v>
+        <v>1631</v>
       </c>
       <c r="H257" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -12470,13 +12461,13 @@
         <v>1275</v>
       </c>
       <c r="F258" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="G258" t="s">
-        <v>1635</v>
+        <v>1632</v>
       </c>
       <c r="H258" t="s">
-        <v>1763</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -12502,7 +12493,7 @@
         <v>952</v>
       </c>
       <c r="H259" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -12525,10 +12516,10 @@
         <v>1338</v>
       </c>
       <c r="G260" t="s">
-        <v>1636</v>
+        <v>1633</v>
       </c>
       <c r="H260" t="s">
-        <v>1779</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -12551,10 +12542,10 @@
         <v>1293</v>
       </c>
       <c r="G261" t="s">
-        <v>1620</v>
+        <v>1617</v>
       </c>
       <c r="H261" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -12574,13 +12565,13 @@
         <v>1285</v>
       </c>
       <c r="F262" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="G262" t="s">
-        <v>1462</v>
+        <v>1459</v>
       </c>
       <c r="H262" t="s">
-        <v>1769</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -12600,13 +12591,13 @@
         <v>1278</v>
       </c>
       <c r="F263" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="G263" t="s">
-        <v>1637</v>
+        <v>1634</v>
       </c>
       <c r="H263" t="s">
-        <v>1764</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -12632,7 +12623,7 @@
         <v>1069</v>
       </c>
       <c r="H264" t="s">
-        <v>1771</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -12655,10 +12646,10 @@
         <v>1293</v>
       </c>
       <c r="G265" t="s">
-        <v>1620</v>
+        <v>1617</v>
       </c>
       <c r="H265" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -12678,13 +12669,13 @@
         <v>1284</v>
       </c>
       <c r="F266" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="G266" t="s">
-        <v>1638</v>
+        <v>1635</v>
       </c>
       <c r="H266" t="s">
-        <v>1763</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -12704,13 +12695,13 @@
         <v>1284</v>
       </c>
       <c r="F267" t="s">
-        <v>1284</v>
+        <v>1277</v>
       </c>
       <c r="G267" t="s">
         <v>972</v>
       </c>
       <c r="H267" t="s">
-        <v>1764</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -12730,13 +12721,13 @@
         <v>1299</v>
       </c>
       <c r="F268" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="G268" t="s">
-        <v>1639</v>
+        <v>1636</v>
       </c>
       <c r="H268" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -12756,13 +12747,13 @@
         <v>1275</v>
       </c>
       <c r="F269" t="s">
-        <v>1410</v>
+        <v>1336</v>
       </c>
       <c r="G269" t="s">
-        <v>1640</v>
+        <v>1637</v>
       </c>
       <c r="H269" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -12782,13 +12773,13 @@
         <v>1310</v>
       </c>
       <c r="F270" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="G270" t="s">
-        <v>1641</v>
+        <v>1638</v>
       </c>
       <c r="H270" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -12808,13 +12799,13 @@
         <v>1293</v>
       </c>
       <c r="F271" t="s">
-        <v>1411</v>
+        <v>1373</v>
       </c>
       <c r="G271" t="s">
-        <v>1642</v>
+        <v>1639</v>
       </c>
       <c r="H271" t="s">
-        <v>1763</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -12834,13 +12825,13 @@
         <v>1278</v>
       </c>
       <c r="F272" t="s">
-        <v>1412</v>
+        <v>1409</v>
       </c>
       <c r="G272" t="s">
-        <v>1643</v>
+        <v>1640</v>
       </c>
       <c r="H272" t="s">
-        <v>1771</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -12860,13 +12851,13 @@
         <v>1285</v>
       </c>
       <c r="F273" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="G273" t="s">
-        <v>1644</v>
+        <v>1641</v>
       </c>
       <c r="H273" t="s">
-        <v>1775</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -12886,13 +12877,13 @@
         <v>1275</v>
       </c>
       <c r="F274" t="s">
-        <v>1365</v>
+        <v>1374</v>
       </c>
       <c r="G274" t="s">
-        <v>1645</v>
+        <v>1642</v>
       </c>
       <c r="H274" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -12918,7 +12909,7 @@
         <v>989</v>
       </c>
       <c r="H275" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -12938,13 +12929,13 @@
         <v>1303</v>
       </c>
       <c r="F276" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
       <c r="G276" t="s">
-        <v>1646</v>
+        <v>1643</v>
       </c>
       <c r="H276" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -12964,13 +12955,13 @@
         <v>1285</v>
       </c>
       <c r="F277" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="G277" t="s">
-        <v>1647</v>
+        <v>1644</v>
       </c>
       <c r="H277" t="s">
-        <v>1769</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -12990,13 +12981,13 @@
         <v>1278</v>
       </c>
       <c r="F278" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="G278" t="s">
-        <v>1537</v>
+        <v>1534</v>
       </c>
       <c r="H278" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -13016,13 +13007,13 @@
         <v>1284</v>
       </c>
       <c r="F279" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="G279" t="s">
-        <v>1648</v>
+        <v>1645</v>
       </c>
       <c r="H279" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -13042,13 +13033,13 @@
         <v>1318</v>
       </c>
       <c r="F280" t="s">
-        <v>1415</v>
+        <v>1412</v>
       </c>
       <c r="G280" t="s">
-        <v>1649</v>
+        <v>1646</v>
       </c>
       <c r="H280" t="s">
-        <v>1769</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -13068,13 +13059,13 @@
         <v>1275</v>
       </c>
       <c r="F281" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="G281" t="s">
-        <v>1650</v>
+        <v>1647</v>
       </c>
       <c r="H281" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -13097,10 +13088,10 @@
         <v>1284</v>
       </c>
       <c r="G282" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="H282" t="s">
-        <v>1779</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -13120,13 +13111,13 @@
         <v>1275</v>
       </c>
       <c r="F283" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="G283" t="s">
-        <v>1651</v>
+        <v>1648</v>
       </c>
       <c r="H283" t="s">
-        <v>1763</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -13146,13 +13137,13 @@
         <v>1275</v>
       </c>
       <c r="F284" t="s">
-        <v>1405</v>
+        <v>1408</v>
       </c>
       <c r="G284" t="s">
-        <v>1652</v>
+        <v>1649</v>
       </c>
       <c r="H284" t="s">
-        <v>1763</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -13178,7 +13169,7 @@
         <v>1228</v>
       </c>
       <c r="H285" t="s">
-        <v>1763</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -13204,7 +13195,7 @@
         <v>989</v>
       </c>
       <c r="H286" t="s">
-        <v>1763</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -13224,13 +13215,13 @@
         <v>1275</v>
       </c>
       <c r="F287" t="s">
-        <v>1416</v>
+        <v>1413</v>
       </c>
       <c r="G287" t="s">
-        <v>1653</v>
+        <v>1650</v>
       </c>
       <c r="H287" t="s">
-        <v>1779</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -13256,7 +13247,7 @@
         <v>1119</v>
       </c>
       <c r="H288" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -13282,7 +13273,7 @@
         <v>952</v>
       </c>
       <c r="H289" t="s">
-        <v>1767</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -13302,13 +13293,13 @@
         <v>1319</v>
       </c>
       <c r="F290" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
       <c r="G290" t="s">
-        <v>1654</v>
+        <v>1651</v>
       </c>
       <c r="H290" t="s">
-        <v>1769</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -13328,13 +13319,13 @@
         <v>1275</v>
       </c>
       <c r="F291" t="s">
-        <v>1365</v>
+        <v>1374</v>
       </c>
       <c r="G291" t="s">
-        <v>1655</v>
+        <v>1652</v>
       </c>
       <c r="H291" t="s">
-        <v>1763</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -13354,13 +13345,13 @@
         <v>1275</v>
       </c>
       <c r="F292" t="s">
-        <v>1418</v>
+        <v>1415</v>
       </c>
       <c r="G292" t="s">
-        <v>1656</v>
+        <v>1653</v>
       </c>
       <c r="H292" t="s">
-        <v>1763</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -13383,10 +13374,10 @@
         <v>1404</v>
       </c>
       <c r="G293" t="s">
-        <v>1657</v>
+        <v>1654</v>
       </c>
       <c r="H293" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -13409,10 +13400,10 @@
         <v>1338</v>
       </c>
       <c r="G294" t="s">
-        <v>1658</v>
+        <v>1655</v>
       </c>
       <c r="H294" t="s">
-        <v>1763</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -13435,10 +13426,10 @@
         <v>1277</v>
       </c>
       <c r="G295" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="H295" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -13458,13 +13449,13 @@
         <v>1320</v>
       </c>
       <c r="F296" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="G296" t="s">
-        <v>1659</v>
+        <v>1656</v>
       </c>
       <c r="H296" t="s">
-        <v>1775</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -13484,13 +13475,13 @@
         <v>1275</v>
       </c>
       <c r="F297" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="G297" t="s">
-        <v>1660</v>
+        <v>1657</v>
       </c>
       <c r="H297" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -13510,13 +13501,13 @@
         <v>1275</v>
       </c>
       <c r="F298" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="G298" t="s">
-        <v>1661</v>
+        <v>1658</v>
       </c>
       <c r="H298" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -13539,10 +13530,10 @@
         <v>1284</v>
       </c>
       <c r="G299" t="s">
-        <v>1662</v>
+        <v>1659</v>
       </c>
       <c r="H299" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -13565,10 +13556,10 @@
         <v>1375</v>
       </c>
       <c r="G300" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
       <c r="H300" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -13594,7 +13585,7 @@
         <v>952</v>
       </c>
       <c r="H301" t="s">
-        <v>1763</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -13614,13 +13605,13 @@
         <v>1275</v>
       </c>
       <c r="F302" t="s">
-        <v>1377</v>
+        <v>1366</v>
       </c>
       <c r="G302" t="s">
-        <v>1550</v>
+        <v>1547</v>
       </c>
       <c r="H302" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -13640,13 +13631,13 @@
         <v>1284</v>
       </c>
       <c r="F303" t="s">
-        <v>1419</v>
+        <v>1344</v>
       </c>
       <c r="G303" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
       <c r="H303" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -13666,13 +13657,13 @@
         <v>1293</v>
       </c>
       <c r="F304" t="s">
-        <v>1420</v>
+        <v>1416</v>
       </c>
       <c r="G304" t="s">
-        <v>1664</v>
+        <v>1661</v>
       </c>
       <c r="H304" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -13692,13 +13683,13 @@
         <v>1275</v>
       </c>
       <c r="F305" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="G305" t="s">
-        <v>1665</v>
+        <v>1662</v>
       </c>
       <c r="H305" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -13718,13 +13709,13 @@
         <v>1275</v>
       </c>
       <c r="F306" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="G306" t="s">
-        <v>1666</v>
+        <v>1663</v>
       </c>
       <c r="H306" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -13744,13 +13735,13 @@
         <v>1284</v>
       </c>
       <c r="F307" t="s">
-        <v>1375</v>
+        <v>1340</v>
       </c>
       <c r="G307" t="s">
-        <v>1667</v>
+        <v>1664</v>
       </c>
       <c r="H307" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -13770,13 +13761,13 @@
         <v>1278</v>
       </c>
       <c r="F308" t="s">
-        <v>1421</v>
+        <v>1417</v>
       </c>
       <c r="G308" t="s">
-        <v>1668</v>
+        <v>1665</v>
       </c>
       <c r="H308" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -13802,7 +13793,7 @@
         <v>989</v>
       </c>
       <c r="H309" t="s">
-        <v>1763</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -13828,7 +13819,7 @@
         <v>1004</v>
       </c>
       <c r="H310" t="s">
-        <v>1764</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -13854,7 +13845,7 @@
         <v>937</v>
       </c>
       <c r="H311" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -13874,13 +13865,13 @@
         <v>1275</v>
       </c>
       <c r="F312" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="G312" t="s">
-        <v>1669</v>
+        <v>1666</v>
       </c>
       <c r="H312" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -13906,7 +13897,7 @@
         <v>952</v>
       </c>
       <c r="H313" t="s">
-        <v>1763</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -13929,10 +13920,10 @@
         <v>1293</v>
       </c>
       <c r="G314" t="s">
-        <v>1620</v>
+        <v>1617</v>
       </c>
       <c r="H314" t="s">
-        <v>1764</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -13958,7 +13949,7 @@
         <v>1093</v>
       </c>
       <c r="H315" t="s">
-        <v>1768</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -13984,7 +13975,7 @@
         <v>1093</v>
       </c>
       <c r="H316" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -14010,7 +14001,7 @@
         <v>972</v>
       </c>
       <c r="H317" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -14033,10 +14024,10 @@
         <v>1375</v>
       </c>
       <c r="G318" t="s">
-        <v>1670</v>
+        <v>1667</v>
       </c>
       <c r="H318" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -14062,7 +14053,7 @@
         <v>952</v>
       </c>
       <c r="H319" t="s">
-        <v>1763</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -14088,7 +14079,7 @@
         <v>952</v>
       </c>
       <c r="H320" t="s">
-        <v>1763</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -14108,13 +14099,13 @@
         <v>1293</v>
       </c>
       <c r="F321" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
       <c r="G321" t="s">
-        <v>1671</v>
+        <v>1668</v>
       </c>
       <c r="H321" t="s">
-        <v>1764</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -14134,13 +14125,13 @@
         <v>1275</v>
       </c>
       <c r="F322" t="s">
-        <v>1423</v>
+        <v>1419</v>
       </c>
       <c r="G322" t="s">
-        <v>1672</v>
+        <v>1669</v>
       </c>
       <c r="H322" t="s">
-        <v>1763</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -14160,13 +14151,13 @@
         <v>1275</v>
       </c>
       <c r="F323" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="G323" t="s">
-        <v>1550</v>
+        <v>1547</v>
       </c>
       <c r="H323" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -14189,10 +14180,10 @@
         <v>1338</v>
       </c>
       <c r="G324" t="s">
-        <v>1462</v>
+        <v>1459</v>
       </c>
       <c r="H324" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -14218,7 +14209,7 @@
         <v>1175</v>
       </c>
       <c r="H325" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -14241,10 +14232,10 @@
         <v>1375</v>
       </c>
       <c r="G326" t="s">
-        <v>1673</v>
+        <v>1670</v>
       </c>
       <c r="H326" t="s">
-        <v>1763</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -14267,10 +14258,10 @@
         <v>1375</v>
       </c>
       <c r="G327" t="s">
-        <v>1674</v>
+        <v>1671</v>
       </c>
       <c r="H327" t="s">
-        <v>1764</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -14290,13 +14281,13 @@
         <v>1284</v>
       </c>
       <c r="F328" t="s">
-        <v>1420</v>
+        <v>1352</v>
       </c>
       <c r="G328" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="H328" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -14316,13 +14307,13 @@
         <v>1309</v>
       </c>
       <c r="F329" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="G329" t="s">
-        <v>1676</v>
+        <v>1673</v>
       </c>
       <c r="H329" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -14342,13 +14333,13 @@
         <v>1278</v>
       </c>
       <c r="F330" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="G330" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
       <c r="H330" t="s">
-        <v>1774</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -14374,7 +14365,7 @@
         <v>952</v>
       </c>
       <c r="H331" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -14400,7 +14391,7 @@
         <v>1093</v>
       </c>
       <c r="H332" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -14420,13 +14411,13 @@
         <v>1275</v>
       </c>
       <c r="F333" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="G333" t="s">
-        <v>1678</v>
+        <v>1675</v>
       </c>
       <c r="H333" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -14446,13 +14437,13 @@
         <v>1284</v>
       </c>
       <c r="F334" t="s">
-        <v>1420</v>
+        <v>1416</v>
       </c>
       <c r="G334" t="s">
-        <v>1679</v>
+        <v>1676</v>
       </c>
       <c r="H334" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -14472,13 +14463,13 @@
         <v>1322</v>
       </c>
       <c r="F335" t="s">
-        <v>1425</v>
+        <v>1421</v>
       </c>
       <c r="G335" t="s">
-        <v>1680</v>
+        <v>1677</v>
       </c>
       <c r="H335" t="s">
-        <v>1789</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -14501,10 +14492,10 @@
         <v>1277</v>
       </c>
       <c r="G336" t="s">
-        <v>1476</v>
+        <v>1473</v>
       </c>
       <c r="H336" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -14524,13 +14515,13 @@
         <v>1296</v>
       </c>
       <c r="F337" t="s">
-        <v>1426</v>
+        <v>1422</v>
       </c>
       <c r="G337" t="s">
-        <v>1681</v>
+        <v>1678</v>
       </c>
       <c r="H337" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -14553,10 +14544,10 @@
         <v>1284</v>
       </c>
       <c r="G338" t="s">
-        <v>1481</v>
+        <v>1478</v>
       </c>
       <c r="H338" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -14576,13 +14567,13 @@
         <v>1275</v>
       </c>
       <c r="F339" t="s">
-        <v>1377</v>
+        <v>1366</v>
       </c>
       <c r="G339" t="s">
-        <v>1682</v>
+        <v>1679</v>
       </c>
       <c r="H339" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -14608,7 +14599,7 @@
         <v>1184</v>
       </c>
       <c r="H340" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -14628,13 +14619,13 @@
         <v>1321</v>
       </c>
       <c r="F341" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
       <c r="G341" t="s">
-        <v>1683</v>
+        <v>1680</v>
       </c>
       <c r="H341" t="s">
-        <v>1779</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -14654,13 +14645,13 @@
         <v>1310</v>
       </c>
       <c r="F342" t="s">
-        <v>1427</v>
+        <v>1423</v>
       </c>
       <c r="G342" t="s">
-        <v>1684</v>
+        <v>1681</v>
       </c>
       <c r="H342" t="s">
-        <v>1768</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -14680,13 +14671,13 @@
         <v>1310</v>
       </c>
       <c r="F343" t="s">
-        <v>1428</v>
+        <v>1367</v>
       </c>
       <c r="G343" t="s">
-        <v>1685</v>
+        <v>1682</v>
       </c>
       <c r="H343" t="s">
-        <v>1774</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -14706,13 +14697,13 @@
         <v>1296</v>
       </c>
       <c r="F344" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="G344" t="s">
-        <v>1686</v>
+        <v>1683</v>
       </c>
       <c r="H344" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -14735,10 +14726,10 @@
         <v>1367</v>
       </c>
       <c r="G345" t="s">
-        <v>1687</v>
+        <v>1684</v>
       </c>
       <c r="H345" t="s">
-        <v>1763</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -14761,10 +14752,10 @@
         <v>1293</v>
       </c>
       <c r="G346" t="s">
-        <v>1688</v>
+        <v>1685</v>
       </c>
       <c r="H346" t="s">
-        <v>1764</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -14784,13 +14775,13 @@
         <v>1316</v>
       </c>
       <c r="F347" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="G347" t="s">
-        <v>1689</v>
+        <v>1686</v>
       </c>
       <c r="H347" t="s">
-        <v>1790</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -14810,13 +14801,13 @@
         <v>1275</v>
       </c>
       <c r="F348" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="G348" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="H348" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -14836,13 +14827,13 @@
         <v>1299</v>
       </c>
       <c r="F349" t="s">
-        <v>1429</v>
+        <v>1424</v>
       </c>
       <c r="G349" t="s">
-        <v>1690</v>
+        <v>1687</v>
       </c>
       <c r="H349" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -14862,13 +14853,13 @@
         <v>1323</v>
       </c>
       <c r="F350" t="s">
-        <v>1430</v>
+        <v>1425</v>
       </c>
       <c r="G350" t="s">
-        <v>1691</v>
+        <v>1688</v>
       </c>
       <c r="H350" t="s">
-        <v>1769</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -14888,13 +14879,13 @@
         <v>1278</v>
       </c>
       <c r="F351" t="s">
-        <v>1369</v>
+        <v>1340</v>
       </c>
       <c r="G351" t="s">
-        <v>1601</v>
+        <v>1598</v>
       </c>
       <c r="H351" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -14914,13 +14905,13 @@
         <v>1299</v>
       </c>
       <c r="F352" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="G352" t="s">
-        <v>1692</v>
+        <v>1689</v>
       </c>
       <c r="H352" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -14946,7 +14937,7 @@
         <v>952</v>
       </c>
       <c r="H353" t="s">
-        <v>1763</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -14972,7 +14963,7 @@
         <v>989</v>
       </c>
       <c r="H354" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -14998,7 +14989,7 @@
         <v>1093</v>
       </c>
       <c r="H355" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -15018,13 +15009,13 @@
         <v>1275</v>
       </c>
       <c r="F356" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="G356" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="H356" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -15044,13 +15035,13 @@
         <v>1278</v>
       </c>
       <c r="F357" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="G357" t="s">
-        <v>1693</v>
+        <v>1690</v>
       </c>
       <c r="H357" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -15070,13 +15061,13 @@
         <v>1321</v>
       </c>
       <c r="F358" t="s">
-        <v>1431</v>
+        <v>1426</v>
       </c>
       <c r="G358" t="s">
-        <v>1694</v>
+        <v>1691</v>
       </c>
       <c r="H358" t="s">
-        <v>1778</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -15102,7 +15093,7 @@
         <v>972</v>
       </c>
       <c r="H359" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -15122,13 +15113,13 @@
         <v>1284</v>
       </c>
       <c r="F360" t="s">
-        <v>1377</v>
+        <v>1366</v>
       </c>
       <c r="G360" t="s">
-        <v>1695</v>
+        <v>1692</v>
       </c>
       <c r="H360" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -15148,13 +15139,13 @@
         <v>1324</v>
       </c>
       <c r="F361" t="s">
-        <v>1432</v>
+        <v>1427</v>
       </c>
       <c r="G361" t="s">
-        <v>1696</v>
+        <v>1693</v>
       </c>
       <c r="H361" t="s">
-        <v>1791</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -15174,13 +15165,13 @@
         <v>1297</v>
       </c>
       <c r="F362" t="s">
-        <v>1433</v>
+        <v>1428</v>
       </c>
       <c r="G362" t="s">
-        <v>1697</v>
+        <v>1694</v>
       </c>
       <c r="H362" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -15206,7 +15197,7 @@
         <v>989</v>
       </c>
       <c r="H363" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -15226,13 +15217,13 @@
         <v>1278</v>
       </c>
       <c r="F364" t="s">
-        <v>1369</v>
+        <v>1340</v>
       </c>
       <c r="G364" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
       <c r="H364" t="s">
-        <v>1769</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -15255,10 +15246,10 @@
         <v>1277</v>
       </c>
       <c r="G365" t="s">
-        <v>1540</v>
+        <v>1537</v>
       </c>
       <c r="H365" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -15278,13 +15269,13 @@
         <v>1285</v>
       </c>
       <c r="F366" t="s">
-        <v>1434</v>
+        <v>1429</v>
       </c>
       <c r="G366" t="s">
-        <v>1698</v>
+        <v>1695</v>
       </c>
       <c r="H366" t="s">
-        <v>1769</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -15304,13 +15295,13 @@
         <v>1278</v>
       </c>
       <c r="F367" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="G367" t="s">
-        <v>1699</v>
+        <v>1696</v>
       </c>
       <c r="H367" t="s">
-        <v>1771</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -15330,13 +15321,13 @@
         <v>1278</v>
       </c>
       <c r="F368" t="s">
-        <v>1435</v>
+        <v>1430</v>
       </c>
       <c r="G368" t="s">
-        <v>1700</v>
+        <v>1697</v>
       </c>
       <c r="H368" t="s">
-        <v>1792</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -15356,13 +15347,13 @@
         <v>1293</v>
       </c>
       <c r="F369" t="s">
-        <v>1411</v>
+        <v>1431</v>
       </c>
       <c r="G369" t="s">
-        <v>1670</v>
+        <v>1667</v>
       </c>
       <c r="H369" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -15388,7 +15379,7 @@
         <v>1119</v>
       </c>
       <c r="H370" t="s">
-        <v>1767</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -15411,10 +15402,10 @@
         <v>1338</v>
       </c>
       <c r="G371" t="s">
-        <v>1541</v>
+        <v>1538</v>
       </c>
       <c r="H371" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -15437,10 +15428,10 @@
         <v>1375</v>
       </c>
       <c r="G372" t="s">
-        <v>1701</v>
+        <v>1698</v>
       </c>
       <c r="H372" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -15460,13 +15451,13 @@
         <v>1321</v>
       </c>
       <c r="F373" t="s">
-        <v>1338</v>
+        <v>1384</v>
       </c>
       <c r="G373" t="s">
-        <v>1460</v>
+        <v>1457</v>
       </c>
       <c r="H373" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -15486,13 +15477,13 @@
         <v>1284</v>
       </c>
       <c r="F374" t="s">
-        <v>1436</v>
+        <v>1432</v>
       </c>
       <c r="G374" t="s">
-        <v>1702</v>
+        <v>1699</v>
       </c>
       <c r="H374" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -15515,10 +15506,10 @@
         <v>1338</v>
       </c>
       <c r="G375" t="s">
-        <v>1703</v>
+        <v>1700</v>
       </c>
       <c r="H375" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -15541,10 +15532,10 @@
         <v>1358</v>
       </c>
       <c r="G376" t="s">
-        <v>1704</v>
+        <v>1701</v>
       </c>
       <c r="H376" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -15564,13 +15555,13 @@
         <v>1284</v>
       </c>
       <c r="F377" t="s">
-        <v>1437</v>
+        <v>1433</v>
       </c>
       <c r="G377" t="s">
-        <v>1705</v>
+        <v>1702</v>
       </c>
       <c r="H377" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -15590,7 +15581,7 @@
         <v>1284</v>
       </c>
       <c r="H378" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -15616,7 +15607,7 @@
         <v>1119</v>
       </c>
       <c r="H379" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -15636,13 +15627,13 @@
         <v>1278</v>
       </c>
       <c r="F380" t="s">
-        <v>1438</v>
+        <v>1434</v>
       </c>
       <c r="G380" t="s">
-        <v>1706</v>
+        <v>1703</v>
       </c>
       <c r="H380" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -15665,10 +15656,10 @@
         <v>1404</v>
       </c>
       <c r="G381" t="s">
-        <v>1707</v>
+        <v>1704</v>
       </c>
       <c r="H381" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -15688,13 +15679,13 @@
         <v>1284</v>
       </c>
       <c r="F382" t="s">
-        <v>1369</v>
+        <v>1340</v>
       </c>
       <c r="G382" t="s">
-        <v>1708</v>
+        <v>1705</v>
       </c>
       <c r="H382" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -15714,13 +15705,13 @@
         <v>1325</v>
       </c>
       <c r="F383" t="s">
-        <v>1439</v>
+        <v>1435</v>
       </c>
       <c r="G383" t="s">
-        <v>1709</v>
+        <v>1706</v>
       </c>
       <c r="H383" t="s">
-        <v>1776</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -15743,10 +15734,10 @@
         <v>1375</v>
       </c>
       <c r="G384" t="s">
-        <v>1710</v>
+        <v>1707</v>
       </c>
       <c r="H384" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -15769,10 +15760,10 @@
         <v>1293</v>
       </c>
       <c r="G385" t="s">
-        <v>1620</v>
+        <v>1617</v>
       </c>
       <c r="H385" t="s">
-        <v>1768</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -15792,13 +15783,13 @@
         <v>1326</v>
       </c>
       <c r="F386" t="s">
-        <v>1440</v>
+        <v>1436</v>
       </c>
       <c r="G386" t="s">
-        <v>1711</v>
+        <v>1708</v>
       </c>
       <c r="H386" t="s">
-        <v>1793</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -15818,13 +15809,13 @@
         <v>1327</v>
       </c>
       <c r="F387" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
       <c r="G387" t="s">
-        <v>1712</v>
+        <v>1709</v>
       </c>
       <c r="H387" t="s">
-        <v>1784</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -15844,13 +15835,13 @@
         <v>1328</v>
       </c>
       <c r="F388" t="s">
-        <v>1442</v>
+        <v>1438</v>
       </c>
       <c r="G388" t="s">
-        <v>1713</v>
+        <v>1710</v>
       </c>
       <c r="H388" t="s">
-        <v>1768</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -15870,13 +15861,13 @@
         <v>1278</v>
       </c>
       <c r="F389" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="G389" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
       <c r="H389" t="s">
-        <v>1783</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -15896,13 +15887,13 @@
         <v>1324</v>
       </c>
       <c r="F390" t="s">
-        <v>1443</v>
+        <v>1439</v>
       </c>
       <c r="G390" t="s">
-        <v>1714</v>
+        <v>1711</v>
       </c>
       <c r="H390" t="s">
-        <v>1769</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -15922,13 +15913,13 @@
         <v>1293</v>
       </c>
       <c r="F391" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="G391" t="s">
-        <v>1715</v>
+        <v>1712</v>
       </c>
       <c r="H391" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -15951,10 +15942,10 @@
         <v>1375</v>
       </c>
       <c r="G392" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
       <c r="H392" t="s">
-        <v>1769</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -15977,10 +15968,10 @@
         <v>1375</v>
       </c>
       <c r="G393" t="s">
-        <v>1574</v>
+        <v>1571</v>
       </c>
       <c r="H393" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -16000,13 +15991,13 @@
         <v>1294</v>
       </c>
       <c r="F394" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="G394" t="s">
-        <v>1716</v>
+        <v>1713</v>
       </c>
       <c r="H394" t="s">
-        <v>1764</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -16029,10 +16020,10 @@
         <v>1375</v>
       </c>
       <c r="G395" t="s">
-        <v>1717</v>
+        <v>1714</v>
       </c>
       <c r="H395" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -16055,10 +16046,10 @@
         <v>1284</v>
       </c>
       <c r="G396" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="H396" t="s">
-        <v>1763</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -16078,13 +16069,13 @@
         <v>1278</v>
       </c>
       <c r="F397" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="G397" t="s">
-        <v>1718</v>
+        <v>1715</v>
       </c>
       <c r="H397" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -16104,13 +16095,13 @@
         <v>1284</v>
       </c>
       <c r="F398" t="s">
-        <v>1420</v>
+        <v>1416</v>
       </c>
       <c r="G398" t="s">
-        <v>1719</v>
+        <v>1716</v>
       </c>
       <c r="H398" t="s">
-        <v>1778</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -16130,13 +16121,13 @@
         <v>1284</v>
       </c>
       <c r="F399" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="G399" t="s">
-        <v>1720</v>
+        <v>1717</v>
       </c>
       <c r="H399" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -16159,10 +16150,10 @@
         <v>1375</v>
       </c>
       <c r="G400" t="s">
-        <v>1721</v>
+        <v>1718</v>
       </c>
       <c r="H400" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -16182,13 +16173,13 @@
         <v>1278</v>
       </c>
       <c r="F401" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="G401" t="s">
-        <v>1722</v>
+        <v>1719</v>
       </c>
       <c r="H401" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -16211,10 +16202,10 @@
         <v>1375</v>
       </c>
       <c r="G402" t="s">
-        <v>1723</v>
+        <v>1720</v>
       </c>
       <c r="H402" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -16234,13 +16225,13 @@
         <v>1284</v>
       </c>
       <c r="F403" t="s">
-        <v>1357</v>
+        <v>1349</v>
       </c>
       <c r="G403" t="s">
-        <v>1724</v>
+        <v>1721</v>
       </c>
       <c r="H403" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -16260,13 +16251,13 @@
         <v>1303</v>
       </c>
       <c r="F404" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
       <c r="G404" t="s">
-        <v>1625</v>
+        <v>1622</v>
       </c>
       <c r="H404" t="s">
-        <v>1794</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -16292,7 +16283,7 @@
         <v>1228</v>
       </c>
       <c r="H405" t="s">
-        <v>1763</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -16312,13 +16303,13 @@
         <v>1293</v>
       </c>
       <c r="F406" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="G406" t="s">
-        <v>1725</v>
+        <v>1722</v>
       </c>
       <c r="H406" t="s">
-        <v>1763</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -16338,13 +16329,13 @@
         <v>1284</v>
       </c>
       <c r="F407" t="s">
-        <v>1369</v>
+        <v>1375</v>
       </c>
       <c r="G407" t="s">
-        <v>1726</v>
+        <v>1723</v>
       </c>
       <c r="H407" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -16364,13 +16355,13 @@
         <v>1278</v>
       </c>
       <c r="F408" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="G408" t="s">
-        <v>1727</v>
+        <v>1724</v>
       </c>
       <c r="H408" t="s">
-        <v>1764</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -16390,13 +16381,13 @@
         <v>1324</v>
       </c>
       <c r="F409" t="s">
-        <v>1446</v>
+        <v>1442</v>
       </c>
       <c r="G409" t="s">
-        <v>1728</v>
+        <v>1725</v>
       </c>
       <c r="H409" t="s">
-        <v>1769</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -16422,7 +16413,7 @@
         <v>1093</v>
       </c>
       <c r="H410" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -16442,13 +16433,13 @@
         <v>1293</v>
       </c>
       <c r="F411" t="s">
-        <v>1447</v>
+        <v>1443</v>
       </c>
       <c r="G411" t="s">
-        <v>1729</v>
+        <v>1726</v>
       </c>
       <c r="H411" t="s">
-        <v>1763</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -16471,10 +16462,10 @@
         <v>1284</v>
       </c>
       <c r="G412" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="H412" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -16494,13 +16485,13 @@
         <v>1284</v>
       </c>
       <c r="F413" t="s">
-        <v>1284</v>
+        <v>1277</v>
       </c>
       <c r="G413" t="s">
         <v>972</v>
       </c>
       <c r="H413" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -16526,7 +16517,7 @@
         <v>1235</v>
       </c>
       <c r="H414" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -16546,13 +16537,13 @@
         <v>1323</v>
       </c>
       <c r="F415" t="s">
-        <v>1448</v>
+        <v>1444</v>
       </c>
       <c r="G415" t="s">
-        <v>1730</v>
+        <v>1727</v>
       </c>
       <c r="H415" t="s">
-        <v>1781</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -16572,13 +16563,13 @@
         <v>1284</v>
       </c>
       <c r="F416" t="s">
-        <v>1284</v>
+        <v>1275</v>
       </c>
       <c r="G416" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="H416" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -16598,13 +16589,13 @@
         <v>1311</v>
       </c>
       <c r="F417" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="G417" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
       <c r="H417" t="s">
-        <v>1780</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -16624,13 +16615,13 @@
         <v>1284</v>
       </c>
       <c r="F418" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="G418" t="s">
-        <v>1731</v>
+        <v>1728</v>
       </c>
       <c r="H418" t="s">
-        <v>1763</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -16650,13 +16641,13 @@
         <v>1329</v>
       </c>
       <c r="F419" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="G419" t="s">
-        <v>1732</v>
+        <v>1729</v>
       </c>
       <c r="H419" t="s">
-        <v>1795</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -16679,10 +16670,10 @@
         <v>1284</v>
       </c>
       <c r="G420" t="s">
-        <v>1481</v>
+        <v>1478</v>
       </c>
       <c r="H420" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -16705,10 +16696,10 @@
         <v>1284</v>
       </c>
       <c r="G421" t="s">
-        <v>1529</v>
+        <v>1526</v>
       </c>
       <c r="H421" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -16728,13 +16719,13 @@
         <v>1330</v>
       </c>
       <c r="F422" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="G422" t="s">
-        <v>1733</v>
+        <v>1730</v>
       </c>
       <c r="H422" t="s">
-        <v>1782</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -16754,13 +16745,13 @@
         <v>1294</v>
       </c>
       <c r="F423" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="G423" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
       <c r="H423" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -16780,13 +16771,13 @@
         <v>1284</v>
       </c>
       <c r="F424" t="s">
-        <v>1446</v>
+        <v>1442</v>
       </c>
       <c r="G424" t="s">
-        <v>1734</v>
+        <v>1731</v>
       </c>
       <c r="H424" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -16806,13 +16797,13 @@
         <v>1293</v>
       </c>
       <c r="F425" t="s">
-        <v>1371</v>
+        <v>1385</v>
       </c>
       <c r="G425" t="s">
-        <v>1735</v>
+        <v>1732</v>
       </c>
       <c r="H425" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -16832,13 +16823,13 @@
         <v>1285</v>
       </c>
       <c r="F426" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="G426" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
       <c r="H426" t="s">
-        <v>1769</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -16864,7 +16855,7 @@
         <v>1069</v>
       </c>
       <c r="H427" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -16890,7 +16881,7 @@
         <v>1246</v>
       </c>
       <c r="H428" t="s">
-        <v>1763</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -16910,13 +16901,13 @@
         <v>1297</v>
       </c>
       <c r="F429" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="G429" t="s">
-        <v>1736</v>
+        <v>1733</v>
       </c>
       <c r="H429" t="s">
-        <v>1764</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -16936,13 +16927,13 @@
         <v>1329</v>
       </c>
       <c r="F430" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="G430" t="s">
-        <v>1737</v>
+        <v>1734</v>
       </c>
       <c r="H430" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -16968,7 +16959,7 @@
         <v>1119</v>
       </c>
       <c r="H431" t="s">
-        <v>1763</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -16991,10 +16982,10 @@
         <v>1293</v>
       </c>
       <c r="G432" t="s">
-        <v>1620</v>
+        <v>1617</v>
       </c>
       <c r="H432" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -17014,13 +17005,13 @@
         <v>1284</v>
       </c>
       <c r="F433" t="s">
-        <v>1277</v>
+        <v>1284</v>
       </c>
       <c r="G433" t="s">
-        <v>1738</v>
+        <v>1735</v>
       </c>
       <c r="H433" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -17040,13 +17031,13 @@
         <v>1293</v>
       </c>
       <c r="F434" t="s">
-        <v>1449</v>
+        <v>1445</v>
       </c>
       <c r="G434" t="s">
-        <v>1739</v>
+        <v>1736</v>
       </c>
       <c r="H434" t="s">
-        <v>1763</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -17069,10 +17060,10 @@
         <v>1375</v>
       </c>
       <c r="G435" t="s">
-        <v>1740</v>
+        <v>1737</v>
       </c>
       <c r="H435" t="s">
-        <v>1796</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -17098,7 +17089,7 @@
         <v>1093</v>
       </c>
       <c r="H436" t="s">
-        <v>1771</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -17118,13 +17109,13 @@
         <v>1293</v>
       </c>
       <c r="F437" t="s">
-        <v>1450</v>
+        <v>1446</v>
       </c>
       <c r="G437" t="s">
-        <v>1741</v>
+        <v>1738</v>
       </c>
       <c r="H437" t="s">
-        <v>1764</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -17147,10 +17138,10 @@
         <v>1338</v>
       </c>
       <c r="G438" t="s">
-        <v>1742</v>
+        <v>1739</v>
       </c>
       <c r="H438" t="s">
-        <v>1792</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -17170,13 +17161,13 @@
         <v>1284</v>
       </c>
       <c r="F439" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
       <c r="G439" t="s">
-        <v>1743</v>
+        <v>1740</v>
       </c>
       <c r="H439" t="s">
-        <v>1783</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -17196,13 +17187,13 @@
         <v>1329</v>
       </c>
       <c r="F440" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="G440" t="s">
-        <v>1744</v>
+        <v>1741</v>
       </c>
       <c r="H440" t="s">
-        <v>1764</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -17225,10 +17216,10 @@
         <v>1284</v>
       </c>
       <c r="G441" t="s">
-        <v>1738</v>
+        <v>1735</v>
       </c>
       <c r="H441" t="s">
-        <v>1764</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -17254,7 +17245,7 @@
         <v>1093</v>
       </c>
       <c r="H442" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -17274,13 +17265,13 @@
         <v>1278</v>
       </c>
       <c r="F443" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="G443" t="s">
-        <v>1745</v>
+        <v>1742</v>
       </c>
       <c r="H443" t="s">
-        <v>1764</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -17300,13 +17291,13 @@
         <v>1278</v>
       </c>
       <c r="F444" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="G444" t="s">
-        <v>1746</v>
+        <v>1743</v>
       </c>
       <c r="H444" t="s">
-        <v>1764</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -17326,13 +17317,13 @@
         <v>1278</v>
       </c>
       <c r="F445" t="s">
-        <v>1452</v>
+        <v>1448</v>
       </c>
       <c r="G445" t="s">
-        <v>1747</v>
+        <v>1744</v>
       </c>
       <c r="H445" t="s">
-        <v>1768</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -17352,13 +17343,13 @@
         <v>1278</v>
       </c>
       <c r="F446" t="s">
-        <v>1357</v>
+        <v>1349</v>
       </c>
       <c r="G446" t="s">
-        <v>1748</v>
+        <v>1745</v>
       </c>
       <c r="H446" t="s">
-        <v>1764</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -17384,7 +17375,7 @@
         <v>972</v>
       </c>
       <c r="H447" t="s">
-        <v>1764</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -17404,13 +17395,13 @@
         <v>1278</v>
       </c>
       <c r="F448" t="s">
-        <v>1357</v>
+        <v>1349</v>
       </c>
       <c r="G448" t="s">
-        <v>1749</v>
+        <v>1746</v>
       </c>
       <c r="H448" t="s">
-        <v>1771</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -17430,13 +17421,13 @@
         <v>1331</v>
       </c>
       <c r="F449" t="s">
-        <v>1453</v>
+        <v>1449</v>
       </c>
       <c r="G449" t="s">
-        <v>1750</v>
+        <v>1747</v>
       </c>
       <c r="H449" t="s">
-        <v>1797</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -17456,13 +17447,13 @@
         <v>1278</v>
       </c>
       <c r="F450" t="s">
-        <v>1450</v>
+        <v>1446</v>
       </c>
       <c r="G450" t="s">
-        <v>1751</v>
+        <v>1748</v>
       </c>
       <c r="H450" t="s">
-        <v>1771</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -17485,10 +17476,10 @@
         <v>1293</v>
       </c>
       <c r="G451" t="s">
-        <v>1662</v>
+        <v>1659</v>
       </c>
       <c r="H451" t="s">
-        <v>1779</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -17508,13 +17499,13 @@
         <v>1284</v>
       </c>
       <c r="F452" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="G452" t="s">
-        <v>1752</v>
+        <v>1749</v>
       </c>
       <c r="H452" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -17534,13 +17525,13 @@
         <v>1293</v>
       </c>
       <c r="F453" t="s">
-        <v>1352</v>
+        <v>1445</v>
       </c>
       <c r="G453" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="H453" t="s">
-        <v>1763</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -17560,13 +17551,13 @@
         <v>1321</v>
       </c>
       <c r="F454" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="G454" t="s">
-        <v>1754</v>
+        <v>1751</v>
       </c>
       <c r="H454" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -17586,13 +17577,13 @@
         <v>1293</v>
       </c>
       <c r="F455" t="s">
-        <v>1454</v>
+        <v>1450</v>
       </c>
       <c r="G455" t="s">
-        <v>1755</v>
+        <v>1752</v>
       </c>
       <c r="H455" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -17612,13 +17603,13 @@
         <v>1332</v>
       </c>
       <c r="F456" t="s">
-        <v>1424</v>
+        <v>1451</v>
       </c>
       <c r="G456" t="s">
-        <v>1756</v>
+        <v>1753</v>
       </c>
       <c r="H456" t="s">
-        <v>1784</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -17638,13 +17629,13 @@
         <v>1333</v>
       </c>
       <c r="F457" t="s">
-        <v>1455</v>
+        <v>1452</v>
       </c>
       <c r="G457" t="s">
-        <v>1757</v>
+        <v>1754</v>
       </c>
       <c r="H457" t="s">
-        <v>1789</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -17664,13 +17655,13 @@
         <v>1278</v>
       </c>
       <c r="F458" t="s">
-        <v>1456</v>
+        <v>1453</v>
       </c>
       <c r="G458" t="s">
-        <v>1758</v>
+        <v>1755</v>
       </c>
       <c r="H458" t="s">
-        <v>1787</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -17690,13 +17681,13 @@
         <v>1278</v>
       </c>
       <c r="F459" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="G459" t="s">
-        <v>1759</v>
+        <v>1756</v>
       </c>
       <c r="H459" t="s">
-        <v>1764</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -17722,7 +17713,7 @@
         <v>1119</v>
       </c>
       <c r="H460" t="s">
-        <v>1798</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -17742,13 +17733,13 @@
         <v>1293</v>
       </c>
       <c r="F461" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="G461" t="s">
+        <v>1757</v>
+      </c>
+      <c r="H461" t="s">
         <v>1760</v>
-      </c>
-      <c r="H461" t="s">
-        <v>1763</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -17768,13 +17759,13 @@
         <v>1329</v>
       </c>
       <c r="F462" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="G462" t="s">
+        <v>1758</v>
+      </c>
+      <c r="H462" t="s">
         <v>1761</v>
-      </c>
-      <c r="H462" t="s">
-        <v>1764</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -17794,13 +17785,13 @@
         <v>1321</v>
       </c>
       <c r="F463" t="s">
-        <v>1411</v>
+        <v>1431</v>
       </c>
       <c r="G463" t="s">
-        <v>1762</v>
+        <v>1759</v>
       </c>
       <c r="H463" t="s">
-        <v>1779</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -17826,7 +17817,7 @@
         <v>972</v>
       </c>
       <c r="H464" t="s">
-        <v>1764</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -17849,10 +17840,10 @@
         <v>1277</v>
       </c>
       <c r="G465" t="s">
-        <v>1620</v>
+        <v>1617</v>
       </c>
       <c r="H465" t="s">
-        <v>1768</v>
+        <v>1765</v>
       </c>
     </row>
   </sheetData>
